--- a/Data/EXO/SerialPrimerTestCT.xlsx
+++ b/Data/EXO/SerialPrimerTestCT.xlsx
@@ -956,11 +956,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="123158976"/>
-        <c:axId val="123159536"/>
+        <c:axId val="108624592"/>
+        <c:axId val="108625152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123158976"/>
+        <c:axId val="108624592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123159536"/>
+        <c:crossAx val="108625152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1011,7 +1011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123159536"/>
+        <c:axId val="108625152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1062,1719 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123158976"/>
+        <c:crossAx val="108624592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Primer: 146a</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35963293269673829"/>
+          <c:y val="4.5454545454545456E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26242449890911246"/>
+                  <c:y val="-9.1590909090909098E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>(SerialPrimerTestCT!$D$33,SerialPrimerTestCT!$D$36,SerialPrimerTestCT!$D$39)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1:10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1:1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(SerialPrimerTestCT!$F$33,SerialPrimerTestCT!$F$36,SerialPrimerTestCT!$F$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.536666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.614999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="286781328"/>
+        <c:axId val="286780208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="286781328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286780208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286780208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286781328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Primer: 20b</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28965071981721702"/>
+                  <c:y val="-3.8301886792452861E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>(SerialPrimerTestCT!$D$46,SerialPrimerTestCT!$D$49,SerialPrimerTestCT!$D$52)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1:10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1:1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(SerialPrimerTestCT!$F$46,SerialPrimerTestCT!$F$49,SerialPrimerTestCT!$F$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.226666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="227991040"/>
+        <c:axId val="227991600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227991040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227991600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227991600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227991040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Primer: 19a</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35534954760375287"/>
+                  <c:y val="-5.9175778383152369E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>(SerialPrimerTestCT!$D$59,SerialPrimerTestCT!$D$62,SerialPrimerTestCT!$D$65)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1:10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1:1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(SerialPrimerTestCT!$F$59,SerialPrimerTestCT!$F$62,SerialPrimerTestCT!$F$65)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.043333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.486666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.643333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="126112064"/>
+        <c:axId val="126110384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126112064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126110384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126110384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126112064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Primer: 30a</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28306221841090717"/>
+                  <c:y val="-5.9189320791914586E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>(SerialPrimerTestCT!$D$71,SerialPrimerTestCT!$D$74,SerialPrimerTestCT!$D$78)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1:10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1:1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(SerialPrimerTestCT!$F$71,SerialPrimerTestCT!$F$74,SerialPrimerTestCT!$F$78)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.146666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.976666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.376666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="286506944"/>
+        <c:axId val="286505264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="286506944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286505264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286505264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286506944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Primer: 10b</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25533327999558392"/>
+                  <c:y val="-6.0441352597915554E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>(SerialPrimerTestCT!$D$85,SerialPrimerTestCT!$D$88,SerialPrimerTestCT!$D$91)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1:10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1:1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(SerialPrimerTestCT!$F$85,SerialPrimerTestCT!$F$88,SerialPrimerTestCT!$F$91)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.236666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.283333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="286782448"/>
+        <c:axId val="286779648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="286782448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286779648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286779648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286782448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,11 +3144,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="123985648"/>
-        <c:axId val="123986208"/>
+        <c:axId val="204969488"/>
+        <c:axId val="204970048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123985648"/>
+        <c:axId val="204969488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +3191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123986208"/>
+        <c:crossAx val="204970048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +3199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123986208"/>
+        <c:axId val="204970048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +3250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123985648"/>
+        <c:crossAx val="204969488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1898,11 +3610,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="123988448"/>
-        <c:axId val="124552016"/>
+        <c:axId val="204972288"/>
+        <c:axId val="204972848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123988448"/>
+        <c:axId val="204972288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +3657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124552016"/>
+        <c:crossAx val="204972848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1953,7 +3665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124552016"/>
+        <c:axId val="204972848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +3716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123988448"/>
+        <c:crossAx val="204972288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2359,11 +4071,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="124554256"/>
-        <c:axId val="124554816"/>
+        <c:axId val="204939088"/>
+        <c:axId val="204939648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124554256"/>
+        <c:axId val="204939088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +4118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124554816"/>
+        <c:crossAx val="204939648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2414,7 +4126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124554816"/>
+        <c:axId val="204939648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +4177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124554256"/>
+        <c:crossAx val="204939088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2820,11 +4532,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="204265408"/>
-        <c:axId val="204366432"/>
+        <c:axId val="205864384"/>
+        <c:axId val="205864944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204265408"/>
+        <c:axId val="205864384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,7 +4579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204366432"/>
+        <c:crossAx val="205864944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2875,7 +4587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204366432"/>
+        <c:axId val="205864944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +4638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204265408"/>
+        <c:crossAx val="205864384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,11 +4993,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="204441808"/>
-        <c:axId val="204442368"/>
+        <c:axId val="205867184"/>
+        <c:axId val="205974944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204441808"/>
+        <c:axId val="205867184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +5040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204442368"/>
+        <c:crossAx val="205974944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3336,7 +5048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204442368"/>
+        <c:axId val="205974944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,7 +5099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204441808"/>
+        <c:crossAx val="205867184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3747,11 +5459,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="204444608"/>
-        <c:axId val="204753088"/>
+        <c:axId val="205977184"/>
+        <c:axId val="205977744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204444608"/>
+        <c:axId val="205977184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3794,7 +5506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204753088"/>
+        <c:crossAx val="205977744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3802,7 +5514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204753088"/>
+        <c:axId val="205977744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3853,7 +5565,694 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204444608"/>
+        <c:crossAx val="205977184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Primer:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> 200a</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22779966789865552"/>
+                  <c:y val="-0.10890016920473773"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>(SerialPrimerTestCT!$D$7,SerialPrimerTestCT!$D$9,SerialPrimerTestCT!$D$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1:10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1:1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(SerialPrimerTestCT!$F$7,SerialPrimerTestCT!$F$9,SerialPrimerTestCT!$F$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.010000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="208350272"/>
+        <c:axId val="208350832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="208350272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208350832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208350832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208350272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Primer: 148a</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26045226670070731"/>
+                  <c:y val="-0.10875675675675675"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>(SerialPrimerTestCT!$D$20,SerialPrimerTestCT!$D$22,SerialPrimerTestCT!$D$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1:10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1:1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(SerialPrimerTestCT!$F$20,SerialPrimerTestCT!$F$22,SerialPrimerTestCT!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.953333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.303333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="226762800"/>
+        <c:axId val="226761120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="226762800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226761120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226761120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226762800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3903,6 +6302,206 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4182,6 +6781,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4685,7 +7364,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5188,7 +7867,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5691,7 +8370,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6194,7 +8873,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6697,7 +9376,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7200,7 +9879,3528 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7738,13 +13938,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:colOff>404813</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -7915,6 +14115,216 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8181,20 +14591,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8223,7 +14633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -8243,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -8271,11 +14681,11 @@
         <v>0.31628046625318662</v>
       </c>
       <c r="Q4">
-        <f>10^(-1/2.107)</f>
-        <v>0.33526757405660113</v>
+        <f>10^(-1/-2.107)</f>
+        <v>2.9826922654654822</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -8294,8 +14704,12 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <f>10^(-1/-2.95)</f>
+        <v>2.1826447283974875</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -8315,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -8343,7 +14757,7 @@
         <v>0.30265491900843206</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -8363,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -8387,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -8411,7 +14825,7 @@
         <v>0.61652250567193378</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -8431,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -8451,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -8479,7 +14893,7 @@
         <v>2.5880108191427666</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -8499,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -8517,7 +14931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="b">
         <v>1</v>
       </c>
@@ -8537,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>1</v>
       </c>
@@ -8565,7 +14979,7 @@
         <v>0.85850645503300105</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -8585,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>1</v>
       </c>
@@ -8605,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -8632,8 +15046,12 @@
         <f>STDEV(E19:E21)</f>
         <v>0.2586503431275502</v>
       </c>
+      <c r="X20">
+        <f>10^(-1/-3.1817)</f>
+        <v>2.0620414367507101</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -8653,11 +15071,11 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <f>10^(-1/2.3043)</f>
-        <v>0.36815332644930238</v>
+        <f>10^(-1/-2.3043)</f>
+        <v>2.7162595803346838</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -8681,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <v>1</v>
       </c>
@@ -8705,7 +15123,7 @@
         <v>0.45763886781318502</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -8725,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <v>1</v>
       </c>
@@ -8745,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
         <v>1</v>
       </c>
@@ -8773,7 +15191,7 @@
         <v>2.9597691351410047</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
         <v>1</v>
       </c>
@@ -8793,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -8810,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="b">
         <v>1</v>
       </c>
@@ -8830,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="b">
         <v>1</v>
       </c>
@@ -8858,7 +15276,7 @@
         <v>0.46936126810805262</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="b">
         <v>1</v>
       </c>
@@ -8878,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="b">
         <v>1</v>
       </c>
@@ -8898,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="b">
         <v>1</v>
       </c>
@@ -8925,8 +15343,12 @@
         <f>STDEV(E32:E34)</f>
         <v>4.0414518843272795E-2</v>
       </c>
+      <c r="X33">
+        <f>10^(-1/-3.5392)</f>
+        <v>1.9166805190672478</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="b">
         <v>1</v>
       </c>
@@ -8946,11 +15368,11 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <f>10^(-1/2.4418)</f>
-        <v>0.38946286079847015</v>
+        <f>10^(-1/-2.4418)</f>
+        <v>2.5676389218469176</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="b">
         <v>1</v>
       </c>
@@ -8970,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="b">
         <v>1</v>
       </c>
@@ -8998,7 +15420,7 @@
         <v>0.95770559150503121</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="b">
         <v>1</v>
       </c>
@@ -9018,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="b">
         <v>1</v>
       </c>
@@ -9038,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="b">
         <v>1</v>
       </c>
@@ -9066,7 +15488,7 @@
         <v>4.5891230099006952</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="b">
         <v>1</v>
       </c>
@@ -9086,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="b">
         <v>1</v>
       </c>
@@ -9103,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="b">
         <v>1</v>
       </c>
@@ -9123,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="b">
         <v>1</v>
       </c>
@@ -9151,7 +15573,7 @@
         <v>1.298935461573566</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="b">
         <v>1</v>
       </c>
@@ -9171,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="b">
         <v>1</v>
       </c>
@@ -9191,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="b">
         <v>1</v>
       </c>
@@ -9218,8 +15640,12 @@
         <f>STDEV(E45:E47)</f>
         <v>0.41725292090050226</v>
       </c>
+      <c r="X46">
+        <f>10^(-1/-2.933)</f>
+        <v>2.1925415637309413</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="b">
         <v>1</v>
       </c>
@@ -9239,11 +15665,11 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <f>10^(-1/1.013)</f>
-        <v>0.10299903808192358</v>
+        <f>10^(-1/-1.013)</f>
+        <v>9.7088285349288217</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="b">
         <v>1</v>
       </c>
@@ -9263,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="b">
         <v>1</v>
       </c>
@@ -9291,7 +15717,7 @@
         <v>7.8102496759067386E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="b">
         <v>1</v>
       </c>
@@ -9311,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="b">
         <v>1</v>
       </c>
@@ -9331,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="b">
         <v>1</v>
       </c>
@@ -9359,7 +15785,7 @@
         <v>0.51733290377989116</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="b">
         <v>1</v>
       </c>
@@ -9379,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="b">
         <v>1</v>
       </c>
@@ -9396,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="b">
         <v>1</v>
       </c>
@@ -9416,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="b">
         <v>1</v>
       </c>
@@ -9444,7 +15870,7 @@
         <v>0.56216842078983165</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="b">
         <v>1</v>
       </c>
@@ -9464,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="b">
         <v>1</v>
       </c>
@@ -9484,7 +15910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="b">
         <v>1</v>
       </c>
@@ -9511,8 +15937,12 @@
         <f>STDEV(E58:E60)</f>
         <v>0.15044378795195662</v>
       </c>
+      <c r="X59">
+        <f>10^(-1/-3.3)</f>
+        <v>2.0092330025650473</v>
+      </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="b">
         <v>1</v>
       </c>
@@ -9532,7 +15962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="b">
         <v>1</v>
       </c>
@@ -9552,11 +15982,11 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <f>10^(-1/1.6543)</f>
-        <v>0.24860778215681836</v>
+        <f>10^(-1/-1.6543)</f>
+        <v>4.0224002294876424</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="b">
         <v>1</v>
       </c>
@@ -9584,7 +16014,7 @@
         <v>0.58045958802773967</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="b">
         <v>1</v>
       </c>
@@ -9604,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="b">
         <v>1</v>
       </c>
@@ -9624,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="b">
         <v>1</v>
       </c>
@@ -9652,7 +16082,7 @@
         <v>0.86639098179363039</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="b">
         <v>1</v>
       </c>
@@ -9672,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="b">
         <v>1</v>
       </c>
@@ -9689,7 +16119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="b">
         <v>1</v>
       </c>
@@ -9709,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="b">
         <v>1</v>
       </c>
@@ -9737,7 +16167,7 @@
         <v>0.70533679898329527</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="b">
         <v>1</v>
       </c>
@@ -9757,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="b">
         <v>1</v>
       </c>
@@ -9781,7 +16211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="b">
         <v>1</v>
       </c>
@@ -9808,7 +16238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="b">
         <v>1</v>
       </c>
@@ -9828,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="b">
         <v>1</v>
       </c>
@@ -9852,11 +16282,15 @@
         <v>0</v>
       </c>
       <c r="P74">
-        <f>10^(-1/2.403)</f>
-        <v>0.38357784636667736</v>
+        <f>10^(-1/-2.403)</f>
+        <v>2.6070327300499523</v>
+      </c>
+      <c r="X74">
+        <f>10^(-1/-3.115)</f>
+        <v>2.0942440359493864</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="b">
         <v>1</v>
       </c>
@@ -9880,7 +16314,7 @@
         <v>0.41860880704224801</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="b">
         <v>1</v>
       </c>
@@ -9900,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="b">
         <v>1</v>
       </c>
@@ -9920,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="b">
         <v>1</v>
       </c>
@@ -9948,7 +16382,7 @@
         <v>0.73350755506220444</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="b">
         <v>1</v>
       </c>
@@ -9968,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="b">
         <v>1</v>
       </c>
@@ -9985,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="b">
         <v>1</v>
       </c>
@@ -10005,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="b">
         <v>1</v>
       </c>
@@ -10033,7 +16467,7 @@
         <v>0.51791247651831396</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="b">
         <v>1</v>
       </c>
@@ -10053,7 +16487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="b">
         <v>1</v>
       </c>
@@ -10073,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="b">
         <v>1</v>
       </c>
@@ -10101,7 +16535,7 @@
         <v>0.14294521094927776</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="b">
         <v>1</v>
       </c>
@@ -10121,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="b">
         <v>1</v>
       </c>
@@ -10141,11 +16575,15 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <f>10^(-1/1.6463)</f>
-        <v>0.2469319548511793</v>
+        <f>10^(-1/-1.6463)</f>
+        <v>4.0496986329804052</v>
+      </c>
+      <c r="X87">
+        <f>10^(-1/-2.523)</f>
+        <v>2.4908842544787078</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="b">
         <v>1</v>
       </c>
@@ -10173,7 +16611,7 @@
         <v>0.54671747731346565</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="b">
         <v>1</v>
       </c>
@@ -10193,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="b">
         <v>1</v>
       </c>
@@ -10213,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="b">
         <v>1</v>
       </c>
@@ -10241,7 +16679,7 @@
         <v>0.67300321940785368</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="b">
         <v>1</v>
       </c>
@@ -10261,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="b">
         <v>1</v>
       </c>
